--- a/Cleaned Data/Social Distance.xlsx
+++ b/Cleaned Data/Social Distance.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3344A9-7853-FE44-A784-7B3BCABCDCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2CCDF0-09BE-FC46-B294-A4F536CD8C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="460" windowWidth="24860" windowHeight="19420" xr2:uid="{542CEE3C-0492-AF42-A872-D143943610B3}"/>
+    <workbookView xWindow="1060" yWindow="580" windowWidth="24860" windowHeight="19340" xr2:uid="{542CEE3C-0492-AF42-A872-D143943610B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Cleaned Data/Social Distance.xlsx
+++ b/Cleaned Data/Social Distance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2CCDF0-09BE-FC46-B294-A4F536CD8C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C460C-9423-684F-AE6C-E7FCA180177E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="580" windowWidth="24860" windowHeight="19340" xr2:uid="{542CEE3C-0492-AF42-A872-D143943610B3}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="24860" windowHeight="19320" xr2:uid="{542CEE3C-0492-AF42-A872-D143943610B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -889,8 +889,23 @@
                     </a:solidFill>
                     <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Axis Title</a:t>
+                  <a:t>Risk</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> of Contracting COVID-19</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
